--- a/data/trans_orig/IP34A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP34A_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1434703A-5D1E-485F-A12A-86CF8492C731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BD232C5-A535-4C3A-92C6-526A2A0C85C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE575097-FFB5-4096-BE95-BAAE40C6335F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A05D2BB7-3994-4329-BC91-52AC89BB4D27}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -104,118 +104,118 @@
     <t>13,02%</t>
   </si>
   <si>
-    <t>58,15%</t>
+    <t>66,08%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>36,44%</t>
+    <t>37,39%</t>
   </si>
   <si>
     <t>10,87%</t>
   </si>
   <si>
-    <t>65,61%</t>
+    <t>51,18%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>25,87%</t>
+    <t>28,85%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>57,02%</t>
+    <t>69,77%</t>
   </si>
   <si>
     <t>6,27%</t>
   </si>
   <si>
-    <t>29,08%</t>
+    <t>28,88%</t>
   </si>
   <si>
     <t>25,2%</t>
   </si>
   <si>
-    <t>82,35%</t>
+    <t>81,19%</t>
   </si>
   <si>
     <t>12,13%</t>
   </si>
   <si>
-    <t>53,02%</t>
+    <t>53,22%</t>
   </si>
   <si>
     <t>11,12%</t>
   </si>
   <si>
-    <t>52,09%</t>
+    <t>52,1%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>26,95%</t>
+    <t>27,29%</t>
   </si>
   <si>
     <t>26,97%</t>
   </si>
   <si>
-    <t>72,15%</t>
+    <t>70,9%</t>
   </si>
   <si>
     <t>13,99%</t>
   </si>
   <si>
-    <t>40,43%</t>
+    <t>42,71%</t>
   </si>
   <si>
     <t>29,29%</t>
   </si>
   <si>
-    <t>74,9%</t>
+    <t>82,48%</t>
   </si>
   <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>52,71%</t>
+    <t>49,37%</t>
   </si>
   <si>
     <t>30,1%</t>
   </si>
   <si>
-    <t>73,84%</t>
+    <t>74,03%</t>
   </si>
   <si>
     <t>21,61%</t>
   </si>
   <si>
-    <t>66,53%</t>
+    <t>64,89%</t>
   </si>
   <si>
     <t>26,01%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
   </si>
   <si>
     <t>18,78%</t>
   </si>
   <si>
-    <t>66,47%</t>
+    <t>66,8%</t>
   </si>
   <si>
     <t>9,74%</t>
   </si>
   <si>
-    <t>40,58%</t>
+    <t>40,26%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -248,19 +248,19 @@
     <t>6,56%</t>
   </si>
   <si>
-    <t>39,14%</t>
+    <t>35,6%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>23,72%</t>
+    <t>14,94%</t>
   </si>
   <si>
     <t>10,18%</t>
   </si>
   <si>
-    <t>46,07%</t>
+    <t>43,92%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -269,136 +269,136 @@
     <t>5,29%</t>
   </si>
   <si>
-    <t>23,58%</t>
+    <t>25,82%</t>
   </si>
   <si>
     <t>8,55%</t>
   </si>
   <si>
-    <t>39,36%</t>
+    <t>40,98%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>22,89%</t>
+    <t>22,62%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>50,53%</t>
+    <t>42,58%</t>
   </si>
   <si>
     <t>14,8%</t>
   </si>
   <si>
-    <t>63,83%</t>
+    <t>66,06%</t>
   </si>
   <si>
     <t>12,17%</t>
   </si>
   <si>
-    <t>38,51%</t>
+    <t>41,17%</t>
   </si>
   <si>
     <t>10,24%</t>
   </si>
   <si>
-    <t>47,87%</t>
+    <t>50,93%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>22,97%</t>
+    <t>23,88%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>48,97%</t>
+    <t>48,43%</t>
   </si>
   <si>
     <t>19,82%</t>
   </si>
   <si>
-    <t>68,43%</t>
+    <t>69,91%</t>
   </si>
   <si>
     <t>15,81%</t>
   </si>
   <si>
-    <t>46,83%</t>
+    <t>43,73%</t>
   </si>
   <si>
     <t>8,69%</t>
   </si>
   <si>
-    <t>38,84%</t>
+    <t>40,11%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>20,57%</t>
+    <t>23,78%</t>
   </si>
   <si>
     <t>21,07%</t>
   </si>
   <si>
-    <t>56,96%</t>
+    <t>63,78%</t>
   </si>
   <si>
     <t>10,96%</t>
   </si>
   <si>
-    <t>34,33%</t>
+    <t>33,12%</t>
   </si>
   <si>
     <t>23,04%</t>
   </si>
   <si>
-    <t>73,31%</t>
+    <t>70,44%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>46,82%</t>
+    <t>41,73%</t>
   </si>
   <si>
     <t>23,52%</t>
   </si>
   <si>
-    <t>59,18%</t>
+    <t>63,86%</t>
   </si>
   <si>
     <t>16,99%</t>
   </si>
   <si>
-    <t>57,04%</t>
+    <t>56,58%</t>
   </si>
   <si>
     <t>20,39%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
   </si>
   <si>
     <t>14,67%</t>
   </si>
   <si>
-    <t>58,33%</t>
+    <t>53,9%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>34,65%</t>
+    <t>35,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3DF6CD-3FCC-45EB-95AB-0576116A685E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328F1A01-A312-4FEF-A531-9A18C27F5475}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
